--- a/projects/test_building/input/Parameter_BuildingComponent_EfficiencyCoefficient.xlsx
+++ b/projects/test_building/input/Parameter_BuildingComponent_EfficiencyCoefficient.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779F67A2-704D-2D48-AE40-DB26EFC3D8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_sia\RenderNew\projects\test_building\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -28,13 +32,13 @@
     <t>id_building_component_option</t>
   </si>
   <si>
+    <t>id_building_component_option_efficiency_class</t>
+  </si>
+  <si>
     <t>unit</t>
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>id_building_component_option_efficiency_class</t>
   </si>
   <si>
     <t>W/m²K</t>
@@ -43,14 +47,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -93,14 +98,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
-  <autoFilter ref="A1:E61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
+  <autoFilter ref="A1:E61"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_building_component"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_building_component_option"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_building_component_option_efficiency_class"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="unit"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="value"/>
+    <tableColumn id="1" name="id_building_component"/>
+    <tableColumn id="2" name="id_building_component_option"/>
+    <tableColumn id="3" name="id_building_component_option_efficiency_class"/>
+    <tableColumn id="4" name="unit"/>
+    <tableColumn id="5" name="value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -368,38 +373,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.36328125" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -416,7 +421,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -433,7 +438,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -450,7 +455,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -467,7 +472,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -484,7 +489,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -501,7 +506,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -518,7 +523,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -535,7 +540,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -552,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -569,7 +574,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -586,7 +591,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -603,7 +608,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -620,7 +625,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -637,7 +642,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -654,7 +659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -668,10 +673,10 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -685,10 +690,10 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -702,10 +707,10 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
@@ -719,10 +724,10 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -736,10 +741,10 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -753,10 +758,10 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
@@ -770,10 +775,10 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2</v>
       </c>
@@ -787,10 +792,10 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
@@ -804,10 +809,10 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3</v>
       </c>
@@ -824,7 +829,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
@@ -841,7 +846,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3</v>
       </c>
@@ -858,7 +863,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3</v>
       </c>
@@ -875,7 +880,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3</v>
       </c>
@@ -892,7 +897,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
@@ -909,7 +914,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
@@ -926,7 +931,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3</v>
       </c>
@@ -943,7 +948,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3</v>
       </c>
@@ -960,7 +965,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>3</v>
       </c>
@@ -977,7 +982,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>3</v>
       </c>
@@ -994,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1011,7 +1016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1028,7 +1033,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1045,7 +1050,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1062,7 +1067,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1079,7 +1084,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1096,7 +1101,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1113,7 +1118,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1130,7 +1135,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1147,7 +1152,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1164,7 +1169,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1181,7 +1186,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1198,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3</v>
       </c>
@@ -1215,7 +1220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>4</v>
       </c>
@@ -1232,7 +1237,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>4</v>
       </c>
@@ -1249,7 +1254,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>4</v>
       </c>
@@ -1266,7 +1271,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>4</v>
       </c>
@@ -1283,7 +1288,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>4</v>
       </c>
@@ -1300,7 +1305,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>4</v>
       </c>
@@ -1317,7 +1322,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>4</v>
       </c>
@@ -1334,7 +1339,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>4</v>
       </c>
@@ -1351,7 +1356,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>4</v>
       </c>
@@ -1368,7 +1373,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>4</v>
       </c>
@@ -1385,7 +1390,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>4</v>
       </c>
@@ -1402,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>4</v>
       </c>
@@ -1420,10 +1425,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>